--- a/rgr3/rgr3.xlsx
+++ b/rgr3/rgr3.xlsx
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B1" t="n">
         <v>0</v>
@@ -431,402 +431,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>1.301576108850084e-08</v>
+        <v>1.039228406081605e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>1.840697197988214e-08</v>
+        <v>1.469687966901579e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>2.254372955630905e-08</v>
+        <v>1.79998920001944e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B5" t="n">
-        <v>2.603112389572799e-08</v>
+        <v>2.078444341434806e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>2.910353285102484e-08</v>
+        <v>2.323766769894087e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B7" t="n">
-        <v>3.188116029504142e-08</v>
+        <v>2.545553865368593e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B8" t="n">
-        <v>3.443541321603926e-08</v>
+        <v>2.74950692349934e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B9" t="n">
-        <v>3.681281745882429e-08</v>
+        <v>2.939340661362497e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B10" t="n">
-        <v>3.904569015259513e-08</v>
+        <v>3.117635335480853e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>4.115756132363662e-08</v>
+        <v>3.286269618718455e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B12" t="n">
-        <v>4.316619433246751e-08</v>
+        <v>3.446661760196348e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>4.508538961407656e-08</v>
+        <v>3.599913600622078e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n">
-        <v>4.692612198621795e-08</v>
+        <v>3.746901377830153e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B15" t="n">
-        <v>4.869728983452384e-08</v>
+        <v>3.888335543515542e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B16" t="n">
-        <v>5.040622674215969e-08</v>
+        <v>4.024801612915561e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B17" t="n">
-        <v>5.205906161439034e-08</v>
+        <v>4.156788917940285e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B18" t="n">
-        <v>5.366097877076546e-08</v>
+        <v>4.284711373471749e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B19" t="n">
-        <v>5.521641000482795e-08</v>
+        <v>4.408922811788631e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B20" t="n">
-        <v>5.672917917410185e-08</v>
+        <v>4.529728526899669e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B21" t="n">
-        <v>5.82026129182969e-08</v>
+        <v>4.647394114479108e-08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B22" t="n">
-        <v>5.963962672680643e-08</v>
+        <v>4.762152343637368e-08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B23" t="n">
-        <v>6.104279274899501e-08</v>
+        <v>4.874208570998741e-08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B24" t="n">
-        <v>6.241439386881243e-08</v>
+        <v>4.983745058096035e-08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B25" t="n">
-        <v>6.375646729860886e-08</v>
+        <v>5.090924451958556e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B26" t="n">
-        <v>6.507084007296232e-08</v>
+        <v>5.195892618982583e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B27" t="n">
-        <v>6.635915820940555e-08</v>
+        <v>5.298780973156241e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B28" t="n">
-        <v>6.762291086473952e-08</v>
+        <v>5.399708404723884e-08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B29" t="n">
-        <v>6.886345049822948e-08</v>
+        <v>5.498782890033811e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B30" t="n">
-        <v>7.008200981998156e-08</v>
+        <v>5.596102844710109e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B31" t="n">
-        <v>7.127971612962883e-08</v>
+        <v>5.691758268463199e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B32" t="n">
-        <v>7.245760352027812e-08</v>
+        <v>5.785831719460039e-08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B33" t="n">
-        <v>7.361662332377342e-08</v>
+        <v>5.87839914827891e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B34" t="n">
-        <v>7.475765309746099e-08</v>
+        <v>5.969530615416049e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
-        <v>7.58815043939038e-08</v>
+        <v>6.0592909116217e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B36" t="n">
-        <v>7.698892950913006e-08</v>
+        <v>6.147740096681309e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B37" t="n">
-        <v>7.808062736890553e-08</v>
+        <v>6.234933969375804e-08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B38" t="n">
-        <v>7.915724868389862e-08</v>
+        <v>6.32092447906969e-08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
-        <v>8.021940048175483e-08</v>
+        <v>6.405760087551118e-08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B40" t="n">
-        <v>8.126765010572747e-08</v>
+        <v>6.489486088281508e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B41" t="n">
-        <v>8.230252875465739e-08</v>
+        <v>6.572144889026172e-08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B42" t="n">
-        <v>8.332453462700661e-08</v>
+        <v>6.653776262872476e-08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B43" t="n">
-        <v>8.433413572176624e-08</v>
+        <v>6.734417571852656e-08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B44" t="n">
-        <v>8.53317723409264e-08</v>
+        <v>6.81410396673929e-08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B45" t="n">
-        <v>8.631785933147735e-08</v>
+        <v>6.892868566044881e-08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B46" t="n">
-        <v>8.729278809933063e-08</v>
+        <v>6.970742616811476e-08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B47" t="n">
-        <v>8.825692842289354e-08</v>
+        <v>7.047755639404641e-08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B48" t="n">
-        <v>8.921063009013189e-08</v>
+        <v>7.123935558214692e-08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B49" t="n">
-        <v>9.01542243796745e-08</v>
+        <v>7.199308819906287e-08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B50" t="n">
-        <v>9.108802540374389e-08</v>
+        <v>7.273900500636211e-08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B51" t="n">
-        <v>9.201233132834864e-08</v>
+        <v>7.347734403471793e-08</v>
       </c>
     </row>
   </sheetData>
